--- a/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
+++ b/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najwa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Office\GitHub\ss-code-semester-3\infrastruktur-dan-platform-untuk-sains-data\minggu-5\posttest-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6408D34-8FCD-48CD-B81F-0115ECCE61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395705E-8DF4-468C-B817-53EEC90B26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada by Citizenship" sheetId="2" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="231">
-  <si>
-    <t>Unknown</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="228">
   <si>
     <t>Polynesia</t>
   </si>
@@ -128,12 +125,6 @@
   </si>
   <si>
     <t>AreaName</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Developing regions</t>
@@ -2749,33 +2740,33 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AY1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:AQ198"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:D198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="39.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F1" s="2"/>
       <c r="H1" s="2"/>
@@ -2884,16 +2875,16 @@
     </row>
     <row r="2" spans="1:43" ht="11.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="12"/>
       <c r="H2" s="12"/>
@@ -3002,16 +2993,16 @@
     </row>
     <row r="3" spans="1:43" ht="11.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12"/>
       <c r="H3" s="12"/>
@@ -3120,16 +3111,16 @@
     </row>
     <row r="4" spans="1:43" ht="11.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12"/>
       <c r="H4" s="12"/>
@@ -3236,18 +3227,18 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:43" s="3" customFormat="1" ht="15.8" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12"/>
@@ -3359,16 +3350,16 @@
     </row>
     <row r="6" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="12"/>
@@ -3480,16 +3471,16 @@
     </row>
     <row r="7" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="12"/>
@@ -3601,16 +3592,16 @@
     </row>
     <row r="8" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="12"/>
@@ -3722,16 +3713,16 @@
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12"/>
@@ -3841,18 +3832,18 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12"/>
@@ -3962,18 +3953,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12"/>
@@ -4083,18 +4074,18 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12"/>
@@ -4204,18 +4195,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12"/>
@@ -4325,18 +4316,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="12"/>
@@ -4448,16 +4439,16 @@
     </row>
     <row r="15" spans="1:43" ht="11.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="12"/>
       <c r="H15" s="12"/>
@@ -4566,16 +4557,16 @@
     </row>
     <row r="16" spans="1:43" ht="11.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="12"/>
       <c r="H16" s="12"/>
@@ -4684,16 +4675,16 @@
     </row>
     <row r="17" spans="1:51">
       <c r="A17" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="12"/>
       <c r="H17" s="12"/>
@@ -4802,16 +4793,16 @@
     </row>
     <row r="18" spans="1:51">
       <c r="A18" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="12"/>
       <c r="H18" s="12"/>
@@ -4920,16 +4911,16 @@
     </row>
     <row r="19" spans="1:51">
       <c r="A19" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="12"/>
       <c r="H19" s="12"/>
@@ -5038,16 +5029,16 @@
     </row>
     <row r="20" spans="1:51">
       <c r="A20" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" s="12"/>
       <c r="H20" s="12"/>
@@ -5156,16 +5147,16 @@
     </row>
     <row r="21" spans="1:51">
       <c r="A21" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F21" s="12"/>
       <c r="H21" s="12"/>
@@ -5274,16 +5265,16 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F22" s="12"/>
       <c r="H22" s="12"/>
@@ -5400,16 +5391,16 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="12"/>
       <c r="H23" s="12"/>
@@ -5526,16 +5517,16 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" s="12"/>
       <c r="H24" s="12"/>
@@ -5652,16 +5643,16 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" s="12"/>
       <c r="H25" s="12"/>
@@ -5778,16 +5769,16 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F26" s="12"/>
       <c r="H26" s="12"/>
@@ -5904,16 +5895,16 @@
     </row>
     <row r="27" spans="1:51">
       <c r="A27" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="12"/>
       <c r="H27" s="12"/>
@@ -6030,16 +6021,16 @@
     </row>
     <row r="28" spans="1:51">
       <c r="A28" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" s="12"/>
       <c r="H28" s="12"/>
@@ -6156,16 +6147,16 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="12"/>
       <c r="H29" s="12"/>
@@ -6282,16 +6273,16 @@
     </row>
     <row r="30" spans="1:51">
       <c r="A30" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30" s="12"/>
       <c r="H30" s="12"/>
@@ -6408,16 +6399,16 @@
     </row>
     <row r="31" spans="1:51">
       <c r="A31" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="12"/>
       <c r="H31" s="12"/>
@@ -6534,16 +6525,16 @@
     </row>
     <row r="32" spans="1:51">
       <c r="A32" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" s="12"/>
       <c r="H32" s="12"/>
@@ -6660,16 +6651,16 @@
     </row>
     <row r="33" spans="1:51">
       <c r="A33" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F33" s="12"/>
       <c r="H33" s="12"/>
@@ -6786,16 +6777,16 @@
     </row>
     <row r="34" spans="1:51">
       <c r="A34" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34" s="12"/>
       <c r="H34" s="12"/>
@@ -6912,16 +6903,16 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F35" s="12"/>
       <c r="H35" s="12"/>
@@ -7038,16 +7029,16 @@
     </row>
     <row r="36" spans="1:51">
       <c r="A36" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F36" s="12"/>
       <c r="H36" s="12"/>
@@ -7164,16 +7155,16 @@
     </row>
     <row r="37" spans="1:51">
       <c r="A37" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="12"/>
       <c r="H37" s="12"/>
@@ -7290,16 +7281,16 @@
     </row>
     <row r="38" spans="1:51">
       <c r="A38" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="12"/>
@@ -7416,16 +7407,16 @@
     </row>
     <row r="39" spans="1:51">
       <c r="A39" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F39" s="12"/>
       <c r="H39" s="12"/>
@@ -7542,16 +7533,16 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F40" s="12"/>
       <c r="H40" s="12"/>
@@ -7668,16 +7659,16 @@
     </row>
     <row r="41" spans="1:51">
       <c r="A41" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F41" s="12"/>
       <c r="H41" s="12"/>
@@ -7794,16 +7785,16 @@
     </row>
     <row r="42" spans="1:51">
       <c r="A42" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F42" s="12"/>
       <c r="H42" s="12"/>
@@ -7920,16 +7911,16 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F43" s="12"/>
       <c r="H43" s="12"/>
@@ -8046,16 +8037,16 @@
     </row>
     <row r="44" spans="1:51">
       <c r="A44" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F44" s="12"/>
       <c r="H44" s="12"/>
@@ -8172,16 +8163,16 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F45" s="12"/>
       <c r="H45" s="12"/>
@@ -8298,16 +8289,16 @@
     </row>
     <row r="46" spans="1:51">
       <c r="A46" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46" s="12"/>
       <c r="H46" s="12"/>
@@ -8424,16 +8415,16 @@
     </row>
     <row r="47" spans="1:51">
       <c r="A47" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F47" s="12"/>
       <c r="H47" s="12"/>
@@ -8550,16 +8541,16 @@
     </row>
     <row r="48" spans="1:51">
       <c r="A48" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F48" s="12"/>
       <c r="H48" s="12"/>
@@ -8676,16 +8667,16 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F49" s="12"/>
       <c r="H49" s="12"/>
@@ -8802,16 +8793,16 @@
     </row>
     <row r="50" spans="1:51">
       <c r="A50" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="12"/>
@@ -8928,16 +8919,16 @@
     </row>
     <row r="51" spans="1:51">
       <c r="A51" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F51" s="12"/>
       <c r="H51" s="12"/>
@@ -9054,16 +9045,16 @@
     </row>
     <row r="52" spans="1:51">
       <c r="A52" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="12"/>
@@ -9180,16 +9171,16 @@
     </row>
     <row r="53" spans="1:51">
       <c r="A53" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="12"/>
@@ -9306,16 +9297,16 @@
     </row>
     <row r="54" spans="1:51">
       <c r="A54" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F54" s="12"/>
       <c r="H54" s="12"/>
@@ -9432,16 +9423,16 @@
     </row>
     <row r="55" spans="1:51">
       <c r="A55" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="12"/>
@@ -9558,16 +9549,16 @@
     </row>
     <row r="56" spans="1:51">
       <c r="A56" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F56" s="12"/>
       <c r="H56" s="12"/>
@@ -9684,16 +9675,16 @@
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F57" s="12"/>
       <c r="H57" s="12"/>
@@ -9810,16 +9801,16 @@
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D58" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F58" s="12"/>
       <c r="H58" s="12"/>
@@ -9936,16 +9927,16 @@
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="12"/>
@@ -10062,16 +10053,16 @@
     </row>
     <row r="60" spans="1:51">
       <c r="A60" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="12"/>
@@ -10188,16 +10179,16 @@
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="12"/>
@@ -10314,16 +10305,16 @@
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="12"/>
@@ -10440,16 +10431,16 @@
     </row>
     <row r="63" spans="1:51">
       <c r="A63" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="12"/>
@@ -10566,16 +10557,16 @@
     </row>
     <row r="64" spans="1:51">
       <c r="A64" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="12"/>
@@ -10692,16 +10683,16 @@
     </row>
     <row r="65" spans="1:51">
       <c r="A65" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="12"/>
@@ -10818,16 +10809,16 @@
     </row>
     <row r="66" spans="1:51">
       <c r="A66" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="12"/>
@@ -10944,16 +10935,16 @@
     </row>
     <row r="67" spans="1:51">
       <c r="A67" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="12"/>
@@ -11070,16 +11061,16 @@
     </row>
     <row r="68" spans="1:51">
       <c r="A68" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="12"/>
@@ -11196,16 +11187,16 @@
     </row>
     <row r="69" spans="1:51">
       <c r="A69" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F69" s="12"/>
       <c r="H69" s="12"/>
@@ -11322,16 +11313,16 @@
     </row>
     <row r="70" spans="1:51">
       <c r="A70" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F70" s="12"/>
       <c r="H70" s="12"/>
@@ -11448,16 +11439,16 @@
     </row>
     <row r="71" spans="1:51">
       <c r="A71" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D71" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F71" s="12"/>
       <c r="H71" s="12"/>
@@ -11574,16 +11565,16 @@
     </row>
     <row r="72" spans="1:51">
       <c r="A72" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F72" s="12"/>
       <c r="H72" s="12"/>
@@ -11700,16 +11691,16 @@
     </row>
     <row r="73" spans="1:51">
       <c r="A73" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D73" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="12"/>
@@ -11826,16 +11817,16 @@
     </row>
     <row r="74" spans="1:51">
       <c r="A74" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="12"/>
@@ -11952,16 +11943,16 @@
     </row>
     <row r="75" spans="1:51">
       <c r="A75" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="12"/>
@@ -12078,16 +12069,16 @@
     </row>
     <row r="76" spans="1:51">
       <c r="A76" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="12"/>
@@ -12204,16 +12195,16 @@
     </row>
     <row r="77" spans="1:51">
       <c r="A77" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F77" s="12"/>
       <c r="H77" s="12"/>
@@ -12330,16 +12321,16 @@
     </row>
     <row r="78" spans="1:51">
       <c r="A78" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="12"/>
@@ -12456,16 +12447,16 @@
     </row>
     <row r="79" spans="1:51">
       <c r="A79" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F79" s="12"/>
       <c r="H79" s="12"/>
@@ -12582,16 +12573,16 @@
     </row>
     <row r="80" spans="1:51">
       <c r="A80" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F80" s="12"/>
       <c r="H80" s="12"/>
@@ -12708,16 +12699,16 @@
     </row>
     <row r="81" spans="1:51">
       <c r="A81" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F81" s="12"/>
       <c r="H81" s="12"/>
@@ -12834,16 +12825,16 @@
     </row>
     <row r="82" spans="1:51">
       <c r="A82" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F82" s="12"/>
       <c r="H82" s="12"/>
@@ -12960,16 +12951,16 @@
     </row>
     <row r="83" spans="1:51">
       <c r="A83" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="12"/>
@@ -13086,16 +13077,16 @@
     </row>
     <row r="84" spans="1:51">
       <c r="A84" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="12"/>
@@ -13212,16 +13203,16 @@
     </row>
     <row r="85" spans="1:51">
       <c r="A85" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="12"/>
@@ -13338,16 +13329,16 @@
     </row>
     <row r="86" spans="1:51">
       <c r="A86" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="12"/>
@@ -13464,16 +13455,16 @@
     </row>
     <row r="87" spans="1:51">
       <c r="A87" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D87" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="12"/>
@@ -13590,16 +13581,16 @@
     </row>
     <row r="88" spans="1:51">
       <c r="A88" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="12"/>
@@ -13716,16 +13707,16 @@
     </row>
     <row r="89" spans="1:51">
       <c r="A89" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F89" s="12"/>
       <c r="H89" s="12"/>
@@ -13842,16 +13833,16 @@
     </row>
     <row r="90" spans="1:51">
       <c r="A90" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F90" s="12"/>
       <c r="H90" s="12"/>
@@ -13968,16 +13959,16 @@
     </row>
     <row r="91" spans="1:51">
       <c r="A91" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F91" s="12"/>
       <c r="H91" s="12"/>
@@ -14094,16 +14085,16 @@
     </row>
     <row r="92" spans="1:51">
       <c r="A92" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="12"/>
@@ -14220,16 +14211,16 @@
     </row>
     <row r="93" spans="1:51">
       <c r="A93" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D93" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="12"/>
@@ -14346,16 +14337,16 @@
     </row>
     <row r="94" spans="1:51">
       <c r="A94" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="12"/>
@@ -14472,16 +14463,16 @@
     </row>
     <row r="95" spans="1:51">
       <c r="A95" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="12"/>
@@ -14598,16 +14589,16 @@
     </row>
     <row r="96" spans="1:51">
       <c r="A96" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="12"/>
@@ -14724,16 +14715,16 @@
     </row>
     <row r="97" spans="1:51">
       <c r="A97" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="12"/>
@@ -14850,16 +14841,16 @@
     </row>
     <row r="98" spans="1:51">
       <c r="A98" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="12"/>
@@ -14976,16 +14967,16 @@
     </row>
     <row r="99" spans="1:51">
       <c r="A99" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D99" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F99" s="12"/>
       <c r="H99" s="12"/>
@@ -15102,16 +15093,16 @@
     </row>
     <row r="100" spans="1:51">
       <c r="A100" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F100" s="12"/>
       <c r="H100" s="12"/>
@@ -15228,16 +15219,16 @@
     </row>
     <row r="101" spans="1:51">
       <c r="A101" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F101" s="12"/>
       <c r="H101" s="12"/>
@@ -15354,16 +15345,16 @@
     </row>
     <row r="102" spans="1:51">
       <c r="A102" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="12"/>
@@ -15480,16 +15471,16 @@
     </row>
     <row r="103" spans="1:51">
       <c r="A103" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="12"/>
@@ -15606,16 +15597,16 @@
     </row>
     <row r="104" spans="1:51">
       <c r="A104" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="12"/>
@@ -15732,16 +15723,16 @@
     </row>
     <row r="105" spans="1:51">
       <c r="A105" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F105" s="12"/>
       <c r="H105" s="12"/>
@@ -15858,16 +15849,16 @@
     </row>
     <row r="106" spans="1:51">
       <c r="A106" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="12"/>
@@ -15984,16 +15975,16 @@
     </row>
     <row r="107" spans="1:51">
       <c r="A107" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="12"/>
@@ -16110,16 +16101,16 @@
     </row>
     <row r="108" spans="1:51">
       <c r="A108" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D108" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="12"/>
@@ -16236,16 +16227,16 @@
     </row>
     <row r="109" spans="1:51">
       <c r="A109" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F109" s="12"/>
       <c r="H109" s="12"/>
@@ -16362,16 +16353,16 @@
     </row>
     <row r="110" spans="1:51">
       <c r="A110" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D110" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F110" s="12"/>
       <c r="H110" s="12"/>
@@ -16488,16 +16479,16 @@
     </row>
     <row r="111" spans="1:51">
       <c r="A111" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B111" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D111" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="12"/>
@@ -16614,16 +16605,16 @@
     </row>
     <row r="112" spans="1:51">
       <c r="A112" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="12"/>
@@ -16740,16 +16731,16 @@
     </row>
     <row r="113" spans="1:51">
       <c r="A113" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="12"/>
@@ -16866,16 +16857,16 @@
     </row>
     <row r="114" spans="1:51">
       <c r="A114" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D114" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="12"/>
@@ -16992,16 +16983,16 @@
     </row>
     <row r="115" spans="1:51">
       <c r="A115" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F115" s="12"/>
       <c r="H115" s="12"/>
@@ -17118,16 +17109,16 @@
     </row>
     <row r="116" spans="1:51">
       <c r="A116" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F116" s="12"/>
       <c r="H116" s="12"/>
@@ -17244,16 +17235,16 @@
     </row>
     <row r="117" spans="1:51">
       <c r="A117" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D117" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="12"/>
@@ -17370,16 +17361,16 @@
     </row>
     <row r="118" spans="1:51">
       <c r="A118" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="12"/>
@@ -17496,16 +17487,16 @@
     </row>
     <row r="119" spans="1:51">
       <c r="A119" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="12"/>
@@ -17622,16 +17613,16 @@
     </row>
     <row r="120" spans="1:51">
       <c r="A120" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="12"/>
@@ -17748,16 +17739,16 @@
     </row>
     <row r="121" spans="1:51">
       <c r="A121" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D121" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="12"/>
@@ -17874,16 +17865,16 @@
     </row>
     <row r="122" spans="1:51">
       <c r="A122" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D122" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F122" s="12"/>
       <c r="H122" s="12"/>
@@ -18000,16 +17991,16 @@
     </row>
     <row r="123" spans="1:51">
       <c r="A123" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D123" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F123" s="12"/>
       <c r="H123" s="12"/>
@@ -18126,16 +18117,16 @@
     </row>
     <row r="124" spans="1:51">
       <c r="A124" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F124" s="12"/>
       <c r="H124" s="12"/>
@@ -18252,16 +18243,16 @@
     </row>
     <row r="125" spans="1:51">
       <c r="A125" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F125" s="12"/>
       <c r="H125" s="12"/>
@@ -18378,16 +18369,16 @@
     </row>
     <row r="126" spans="1:51">
       <c r="A126" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F126" s="12"/>
       <c r="H126" s="12"/>
@@ -18504,16 +18495,16 @@
     </row>
     <row r="127" spans="1:51">
       <c r="A127" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D127" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F127" s="12"/>
       <c r="H127" s="12"/>
@@ -18630,16 +18621,16 @@
     </row>
     <row r="128" spans="1:51">
       <c r="A128" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F128" s="12"/>
       <c r="H128" s="12"/>
@@ -18756,16 +18747,16 @@
     </row>
     <row r="129" spans="1:51">
       <c r="A129" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F129" s="12"/>
       <c r="H129" s="12"/>
@@ -18882,16 +18873,16 @@
     </row>
     <row r="130" spans="1:51">
       <c r="A130" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F130" s="12"/>
       <c r="H130" s="12"/>
@@ -19008,16 +18999,16 @@
     </row>
     <row r="131" spans="1:51">
       <c r="A131" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F131" s="12"/>
       <c r="H131" s="12"/>
@@ -19134,16 +19125,16 @@
     </row>
     <row r="132" spans="1:51">
       <c r="A132" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B132" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D132" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F132" s="12"/>
       <c r="H132" s="12"/>
@@ -19260,16 +19251,16 @@
     </row>
     <row r="133" spans="1:51">
       <c r="A133" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B133" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D133" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F133" s="12"/>
       <c r="H133" s="12"/>
@@ -19386,16 +19377,16 @@
     </row>
     <row r="134" spans="1:51">
       <c r="A134" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D134" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F134" s="12"/>
       <c r="H134" s="12"/>
@@ -19512,16 +19503,16 @@
     </row>
     <row r="135" spans="1:51">
       <c r="A135" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F135" s="12"/>
       <c r="H135" s="12"/>
@@ -19638,16 +19629,16 @@
     </row>
     <row r="136" spans="1:51">
       <c r="A136" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F136" s="12"/>
       <c r="H136" s="12"/>
@@ -19764,16 +19755,16 @@
     </row>
     <row r="137" spans="1:51">
       <c r="A137" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F137" s="12"/>
       <c r="H137" s="12"/>
@@ -19890,16 +19881,16 @@
     </row>
     <row r="138" spans="1:51">
       <c r="A138" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F138" s="12"/>
       <c r="H138" s="12"/>
@@ -20016,16 +20007,16 @@
     </row>
     <row r="139" spans="1:51">
       <c r="A139" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F139" s="12"/>
       <c r="H139" s="12"/>
@@ -20142,16 +20133,16 @@
     </row>
     <row r="140" spans="1:51">
       <c r="A140" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B140" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D140" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F140" s="12"/>
       <c r="H140" s="12"/>
@@ -20268,16 +20259,16 @@
     </row>
     <row r="141" spans="1:51">
       <c r="A141" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F141" s="12"/>
       <c r="H141" s="12"/>
@@ -20394,16 +20385,16 @@
     </row>
     <row r="142" spans="1:51">
       <c r="A142" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F142" s="12"/>
       <c r="H142" s="12"/>
@@ -20520,16 +20511,16 @@
     </row>
     <row r="143" spans="1:51">
       <c r="A143" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F143" s="12"/>
       <c r="H143" s="12"/>
@@ -20646,16 +20637,16 @@
     </row>
     <row r="144" spans="1:51">
       <c r="A144" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F144" s="12"/>
       <c r="H144" s="12"/>
@@ -20772,16 +20763,16 @@
     </row>
     <row r="145" spans="1:51">
       <c r="A145" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F145" s="12"/>
       <c r="H145" s="12"/>
@@ -20898,16 +20889,16 @@
     </row>
     <row r="146" spans="1:51">
       <c r="A146" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F146" s="12"/>
       <c r="H146" s="12"/>
@@ -21024,16 +21015,16 @@
     </row>
     <row r="147" spans="1:51">
       <c r="A147" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F147" s="12"/>
       <c r="H147" s="12"/>
@@ -21150,16 +21141,16 @@
     </row>
     <row r="148" spans="1:51">
       <c r="A148" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F148" s="12"/>
       <c r="H148" s="12"/>
@@ -21276,16 +21267,16 @@
     </row>
     <row r="149" spans="1:51">
       <c r="A149" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F149" s="12"/>
       <c r="H149" s="12"/>
@@ -21402,16 +21393,16 @@
     </row>
     <row r="150" spans="1:51">
       <c r="A150" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F150" s="12"/>
       <c r="H150" s="12"/>
@@ -21528,16 +21519,16 @@
     </row>
     <row r="151" spans="1:51">
       <c r="A151" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D151" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F151" s="12"/>
       <c r="H151" s="12"/>
@@ -21654,16 +21645,16 @@
     </row>
     <row r="152" spans="1:51">
       <c r="A152" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F152" s="12"/>
       <c r="H152" s="12"/>
@@ -21780,16 +21771,16 @@
     </row>
     <row r="153" spans="1:51">
       <c r="A153" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F153" s="12"/>
       <c r="H153" s="12"/>
@@ -21906,16 +21897,16 @@
     </row>
     <row r="154" spans="1:51">
       <c r="A154" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F154" s="12"/>
       <c r="H154" s="12"/>
@@ -22032,16 +22023,16 @@
     </row>
     <row r="155" spans="1:51">
       <c r="A155" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D155" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F155" s="12"/>
       <c r="H155" s="12"/>
@@ -22158,16 +22149,16 @@
     </row>
     <row r="156" spans="1:51">
       <c r="A156" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F156" s="12"/>
       <c r="H156" s="12"/>
@@ -22284,16 +22275,16 @@
     </row>
     <row r="157" spans="1:51">
       <c r="A157" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F157" s="12"/>
       <c r="H157" s="12"/>
@@ -22410,16 +22401,16 @@
     </row>
     <row r="158" spans="1:51">
       <c r="A158" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F158" s="12"/>
       <c r="H158" s="12"/>
@@ -22536,16 +22527,16 @@
     </row>
     <row r="159" spans="1:51">
       <c r="A159" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F159" s="12"/>
       <c r="H159" s="12"/>
@@ -22662,16 +22653,16 @@
     </row>
     <row r="160" spans="1:51">
       <c r="A160" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B160" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C160" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D160" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F160" s="12"/>
       <c r="H160" s="12"/>
@@ -22788,16 +22779,16 @@
     </row>
     <row r="161" spans="1:51">
       <c r="A161" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F161" s="12"/>
       <c r="H161" s="12"/>
@@ -22914,16 +22905,16 @@
     </row>
     <row r="162" spans="1:51">
       <c r="A162" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B162" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D162" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F162" s="12"/>
       <c r="H162" s="12"/>
@@ -23040,16 +23031,16 @@
     </row>
     <row r="163" spans="1:51">
       <c r="A163" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D163" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F163" s="12"/>
       <c r="H163" s="12"/>
@@ -23166,16 +23157,16 @@
     </row>
     <row r="164" spans="1:51">
       <c r="A164" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B164" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C164" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D164" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F164" s="12"/>
       <c r="H164" s="12"/>
@@ -23292,16 +23283,16 @@
     </row>
     <row r="165" spans="1:51">
       <c r="A165" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F165" s="12"/>
       <c r="H165" s="12"/>
@@ -23418,16 +23409,16 @@
     </row>
     <row r="166" spans="1:51">
       <c r="A166" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F166" s="12"/>
       <c r="H166" s="12"/>
@@ -23544,16 +23535,16 @@
     </row>
     <row r="167" spans="1:51">
       <c r="A167" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F167" s="12"/>
       <c r="H167" s="12"/>
@@ -23670,16 +23661,16 @@
     </row>
     <row r="168" spans="1:51">
       <c r="A168" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B168" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D168" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F168" s="12"/>
       <c r="H168" s="12"/>
@@ -23796,16 +23787,16 @@
     </row>
     <row r="169" spans="1:51">
       <c r="A169" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F169" s="12"/>
       <c r="H169" s="12"/>
@@ -23922,16 +23913,16 @@
     </row>
     <row r="170" spans="1:51">
       <c r="A170" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F170" s="12"/>
       <c r="H170" s="12"/>
@@ -24048,16 +24039,16 @@
     </row>
     <row r="171" spans="1:51">
       <c r="A171" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F171" s="12"/>
       <c r="H171" s="12"/>
@@ -24174,16 +24165,16 @@
     </row>
     <row r="172" spans="1:51">
       <c r="A172" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F172" s="12"/>
       <c r="H172" s="12"/>
@@ -24300,16 +24291,16 @@
     </row>
     <row r="173" spans="1:51">
       <c r="A173" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F173" s="12"/>
       <c r="H173" s="12"/>
@@ -24426,16 +24417,16 @@
     </row>
     <row r="174" spans="1:51">
       <c r="A174" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B174" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D174" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F174" s="12"/>
       <c r="H174" s="12"/>
@@ -24552,16 +24543,16 @@
     </row>
     <row r="175" spans="1:51">
       <c r="A175" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F175" s="12"/>
       <c r="H175" s="12"/>
@@ -24678,16 +24669,16 @@
     </row>
     <row r="176" spans="1:51">
       <c r="A176" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F176" s="12"/>
       <c r="H176" s="12"/>
@@ -24804,16 +24795,16 @@
     </row>
     <row r="177" spans="1:51">
       <c r="A177" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F177" s="12"/>
       <c r="H177" s="12"/>
@@ -24930,16 +24921,16 @@
     </row>
     <row r="178" spans="1:51">
       <c r="A178" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F178" s="12"/>
       <c r="H178" s="12"/>
@@ -25056,16 +25047,16 @@
     </row>
     <row r="179" spans="1:51">
       <c r="A179" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F179" s="12"/>
       <c r="H179" s="12"/>
@@ -25182,16 +25173,16 @@
     </row>
     <row r="180" spans="1:51">
       <c r="A180" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F180" s="12"/>
       <c r="H180" s="12"/>
@@ -25308,16 +25299,16 @@
     </row>
     <row r="181" spans="1:51">
       <c r="A181" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F181" s="12"/>
       <c r="H181" s="12"/>
@@ -25434,16 +25425,16 @@
     </row>
     <row r="182" spans="1:51">
       <c r="A182" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F182" s="12"/>
       <c r="H182" s="12"/>
@@ -25560,16 +25551,16 @@
     </row>
     <row r="183" spans="1:51">
       <c r="A183" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F183" s="12"/>
       <c r="H183" s="12"/>
@@ -25686,16 +25677,16 @@
     </row>
     <row r="184" spans="1:51">
       <c r="A184" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F184" s="12"/>
       <c r="H184" s="12"/>
@@ -25812,16 +25803,16 @@
     </row>
     <row r="185" spans="1:51">
       <c r="A185" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F185" s="12"/>
       <c r="H185" s="12"/>
@@ -25938,16 +25929,16 @@
     </row>
     <row r="186" spans="1:51">
       <c r="A186" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F186" s="12"/>
       <c r="H186" s="12"/>
@@ -26064,16 +26055,16 @@
     </row>
     <row r="187" spans="1:51">
       <c r="A187" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F187" s="12"/>
       <c r="H187" s="12"/>
@@ -26190,16 +26181,16 @@
     </row>
     <row r="188" spans="1:51">
       <c r="A188" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F188" s="12"/>
       <c r="H188" s="12"/>
@@ -26316,16 +26307,16 @@
     </row>
     <row r="189" spans="1:51">
       <c r="A189" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F189" s="12"/>
       <c r="H189" s="12"/>
@@ -26442,16 +26433,16 @@
     </row>
     <row r="190" spans="1:51">
       <c r="A190" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F190" s="12"/>
       <c r="H190" s="12"/>
@@ -26568,16 +26559,16 @@
     </row>
     <row r="191" spans="1:51">
       <c r="A191" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F191" s="12"/>
       <c r="H191" s="12"/>
@@ -26694,16 +26685,16 @@
     </row>
     <row r="192" spans="1:51">
       <c r="A192" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F192" s="12"/>
       <c r="H192" s="12"/>
@@ -26820,16 +26811,16 @@
     </row>
     <row r="193" spans="1:51">
       <c r="A193" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F193" s="12"/>
       <c r="H193" s="12"/>
@@ -26946,16 +26937,16 @@
     </row>
     <row r="194" spans="1:51">
       <c r="A194" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F194" s="12"/>
       <c r="H194" s="12"/>
@@ -27072,16 +27063,16 @@
     </row>
     <row r="195" spans="1:51">
       <c r="A195" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F195" s="12"/>
       <c r="H195" s="12"/>
@@ -27198,16 +27189,16 @@
     </row>
     <row r="196" spans="1:51">
       <c r="A196" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F196" s="12"/>
       <c r="H196" s="12"/>
@@ -27323,18 +27314,10 @@
       <c r="AY196" s="4"/>
     </row>
     <row r="197" spans="1:51">
-      <c r="A197" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="11"/>
       <c r="F197" s="12"/>
       <c r="H197" s="12"/>
       <c r="J197" s="10">
@@ -27449,18 +27432,10 @@
       <c r="AY197" s="4"/>
     </row>
     <row r="198" spans="1:51">
-      <c r="A198" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="11"/>
       <c r="F198" s="12"/>
       <c r="H198" s="12"/>
       <c r="J198" s="10">

--- a/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
+++ b/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Office\GitHub\ss-code-semester-3\infrastruktur-dan-platform-untuk-sains-data\minggu-5\posttest-5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najwa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395705E-8DF4-468C-B817-53EEC90B26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6408D34-8FCD-48CD-B81F-0115ECCE61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada by Citizenship" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="231">
+  <si>
+    <t>Unknown</t>
+  </si>
   <si>
     <t>Polynesia</t>
   </si>
@@ -125,6 +128,12 @@
   </si>
   <si>
     <t>AreaName</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Developing regions</t>
@@ -2740,33 +2749,33 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AY1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197:D198"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:AQ198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="39.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.375" style="1"/>
+    <col min="3" max="3" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F1" s="2"/>
       <c r="H1" s="2"/>
@@ -2875,16 +2884,16 @@
     </row>
     <row r="2" spans="1:43" ht="11.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="12"/>
       <c r="H2" s="12"/>
@@ -2993,16 +3002,16 @@
     </row>
     <row r="3" spans="1:43" ht="11.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" s="12"/>
       <c r="H3" s="12"/>
@@ -3111,16 +3120,16 @@
     </row>
     <row r="4" spans="1:43" ht="11.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" s="12"/>
       <c r="H4" s="12"/>
@@ -3227,18 +3236,18 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="3" customFormat="1" ht="15.8" customHeight="1">
+    <row r="5" spans="1:43" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12"/>
@@ -3350,16 +3359,16 @@
     </row>
     <row r="6" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="12"/>
@@ -3471,16 +3480,16 @@
     </row>
     <row r="7" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="12"/>
@@ -3592,16 +3601,16 @@
     </row>
     <row r="8" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="12"/>
@@ -3713,16 +3722,16 @@
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12"/>
@@ -3832,18 +3841,18 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
+    <row r="10" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12"/>
@@ -3953,18 +3962,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
+    <row r="11" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12"/>
@@ -4074,18 +4083,18 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
+    <row r="12" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12"/>
@@ -4195,18 +4204,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
+    <row r="13" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12"/>
@@ -4316,18 +4325,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
+    <row r="14" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="12"/>
@@ -4439,16 +4448,16 @@
     </row>
     <row r="15" spans="1:43" ht="11.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F15" s="12"/>
       <c r="H15" s="12"/>
@@ -4557,16 +4566,16 @@
     </row>
     <row r="16" spans="1:43" ht="11.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" s="12"/>
       <c r="H16" s="12"/>
@@ -4675,16 +4684,16 @@
     </row>
     <row r="17" spans="1:51">
       <c r="A17" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="12"/>
       <c r="H17" s="12"/>
@@ -4793,16 +4802,16 @@
     </row>
     <row r="18" spans="1:51">
       <c r="A18" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12"/>
       <c r="H18" s="12"/>
@@ -4911,16 +4920,16 @@
     </row>
     <row r="19" spans="1:51">
       <c r="A19" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" s="12"/>
       <c r="H19" s="12"/>
@@ -5029,16 +5038,16 @@
     </row>
     <row r="20" spans="1:51">
       <c r="A20" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F20" s="12"/>
       <c r="H20" s="12"/>
@@ -5147,16 +5156,16 @@
     </row>
     <row r="21" spans="1:51">
       <c r="A21" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F21" s="12"/>
       <c r="H21" s="12"/>
@@ -5265,16 +5274,16 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F22" s="12"/>
       <c r="H22" s="12"/>
@@ -5391,16 +5400,16 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F23" s="12"/>
       <c r="H23" s="12"/>
@@ -5517,16 +5526,16 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24" s="12"/>
       <c r="H24" s="12"/>
@@ -5643,16 +5652,16 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25" s="12"/>
       <c r="H25" s="12"/>
@@ -5769,16 +5778,16 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26" s="12"/>
       <c r="H26" s="12"/>
@@ -5895,16 +5904,16 @@
     </row>
     <row r="27" spans="1:51">
       <c r="A27" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F27" s="12"/>
       <c r="H27" s="12"/>
@@ -6021,16 +6030,16 @@
     </row>
     <row r="28" spans="1:51">
       <c r="A28" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F28" s="12"/>
       <c r="H28" s="12"/>
@@ -6147,16 +6156,16 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F29" s="12"/>
       <c r="H29" s="12"/>
@@ -6273,16 +6282,16 @@
     </row>
     <row r="30" spans="1:51">
       <c r="A30" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F30" s="12"/>
       <c r="H30" s="12"/>
@@ -6399,16 +6408,16 @@
     </row>
     <row r="31" spans="1:51">
       <c r="A31" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F31" s="12"/>
       <c r="H31" s="12"/>
@@ -6525,16 +6534,16 @@
     </row>
     <row r="32" spans="1:51">
       <c r="A32" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32" s="12"/>
       <c r="H32" s="12"/>
@@ -6651,16 +6660,16 @@
     </row>
     <row r="33" spans="1:51">
       <c r="A33" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="12"/>
       <c r="H33" s="12"/>
@@ -6777,16 +6786,16 @@
     </row>
     <row r="34" spans="1:51">
       <c r="A34" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F34" s="12"/>
       <c r="H34" s="12"/>
@@ -6903,16 +6912,16 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F35" s="12"/>
       <c r="H35" s="12"/>
@@ -7029,16 +7038,16 @@
     </row>
     <row r="36" spans="1:51">
       <c r="A36" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F36" s="12"/>
       <c r="H36" s="12"/>
@@ -7155,16 +7164,16 @@
     </row>
     <row r="37" spans="1:51">
       <c r="A37" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F37" s="12"/>
       <c r="H37" s="12"/>
@@ -7281,16 +7290,16 @@
     </row>
     <row r="38" spans="1:51">
       <c r="A38" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="12"/>
@@ -7407,16 +7416,16 @@
     </row>
     <row r="39" spans="1:51">
       <c r="A39" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F39" s="12"/>
       <c r="H39" s="12"/>
@@ -7533,16 +7542,16 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F40" s="12"/>
       <c r="H40" s="12"/>
@@ -7659,16 +7668,16 @@
     </row>
     <row r="41" spans="1:51">
       <c r="A41" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D41" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F41" s="12"/>
       <c r="H41" s="12"/>
@@ -7785,16 +7794,16 @@
     </row>
     <row r="42" spans="1:51">
       <c r="A42" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F42" s="12"/>
       <c r="H42" s="12"/>
@@ -7911,16 +7920,16 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F43" s="12"/>
       <c r="H43" s="12"/>
@@ -8037,16 +8046,16 @@
     </row>
     <row r="44" spans="1:51">
       <c r="A44" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F44" s="12"/>
       <c r="H44" s="12"/>
@@ -8163,16 +8172,16 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D45" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F45" s="12"/>
       <c r="H45" s="12"/>
@@ -8289,16 +8298,16 @@
     </row>
     <row r="46" spans="1:51">
       <c r="A46" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F46" s="12"/>
       <c r="H46" s="12"/>
@@ -8415,16 +8424,16 @@
     </row>
     <row r="47" spans="1:51">
       <c r="A47" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F47" s="12"/>
       <c r="H47" s="12"/>
@@ -8541,16 +8550,16 @@
     </row>
     <row r="48" spans="1:51">
       <c r="A48" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F48" s="12"/>
       <c r="H48" s="12"/>
@@ -8667,16 +8676,16 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" s="11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F49" s="12"/>
       <c r="H49" s="12"/>
@@ -8793,16 +8802,16 @@
     </row>
     <row r="50" spans="1:51">
       <c r="A50" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="12"/>
@@ -8919,16 +8928,16 @@
     </row>
     <row r="51" spans="1:51">
       <c r="A51" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F51" s="12"/>
       <c r="H51" s="12"/>
@@ -9045,16 +9054,16 @@
     </row>
     <row r="52" spans="1:51">
       <c r="A52" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="12"/>
@@ -9171,16 +9180,16 @@
     </row>
     <row r="53" spans="1:51">
       <c r="A53" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="12"/>
@@ -9297,16 +9306,16 @@
     </row>
     <row r="54" spans="1:51">
       <c r="A54" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F54" s="12"/>
       <c r="H54" s="12"/>
@@ -9423,16 +9432,16 @@
     </row>
     <row r="55" spans="1:51">
       <c r="A55" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="12"/>
@@ -9549,16 +9558,16 @@
     </row>
     <row r="56" spans="1:51">
       <c r="A56" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F56" s="12"/>
       <c r="H56" s="12"/>
@@ -9675,16 +9684,16 @@
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F57" s="12"/>
       <c r="H57" s="12"/>
@@ -9801,16 +9810,16 @@
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F58" s="12"/>
       <c r="H58" s="12"/>
@@ -9927,16 +9936,16 @@
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="12"/>
@@ -10053,16 +10062,16 @@
     </row>
     <row r="60" spans="1:51">
       <c r="A60" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="12"/>
@@ -10179,16 +10188,16 @@
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="12"/>
@@ -10305,16 +10314,16 @@
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="12"/>
@@ -10431,16 +10440,16 @@
     </row>
     <row r="63" spans="1:51">
       <c r="A63" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="12"/>
@@ -10557,16 +10566,16 @@
     </row>
     <row r="64" spans="1:51">
       <c r="A64" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="12"/>
@@ -10683,16 +10692,16 @@
     </row>
     <row r="65" spans="1:51">
       <c r="A65" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D65" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="12"/>
@@ -10809,16 +10818,16 @@
     </row>
     <row r="66" spans="1:51">
       <c r="A66" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="12"/>
@@ -10935,16 +10944,16 @@
     </row>
     <row r="67" spans="1:51">
       <c r="A67" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D67" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="12"/>
@@ -11061,16 +11070,16 @@
     </row>
     <row r="68" spans="1:51">
       <c r="A68" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D68" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="12"/>
@@ -11187,16 +11196,16 @@
     </row>
     <row r="69" spans="1:51">
       <c r="A69" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D69" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F69" s="12"/>
       <c r="H69" s="12"/>
@@ -11313,16 +11322,16 @@
     </row>
     <row r="70" spans="1:51">
       <c r="A70" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F70" s="12"/>
       <c r="H70" s="12"/>
@@ -11439,16 +11448,16 @@
     </row>
     <row r="71" spans="1:51">
       <c r="A71" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F71" s="12"/>
       <c r="H71" s="12"/>
@@ -11565,16 +11574,16 @@
     </row>
     <row r="72" spans="1:51">
       <c r="A72" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F72" s="12"/>
       <c r="H72" s="12"/>
@@ -11691,16 +11700,16 @@
     </row>
     <row r="73" spans="1:51">
       <c r="A73" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="12"/>
@@ -11817,16 +11826,16 @@
     </row>
     <row r="74" spans="1:51">
       <c r="A74" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D74" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="12"/>
@@ -11943,16 +11952,16 @@
     </row>
     <row r="75" spans="1:51">
       <c r="A75" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D75" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="12"/>
@@ -12069,16 +12078,16 @@
     </row>
     <row r="76" spans="1:51">
       <c r="A76" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D76" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="12"/>
@@ -12195,16 +12204,16 @@
     </row>
     <row r="77" spans="1:51">
       <c r="A77" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F77" s="12"/>
       <c r="H77" s="12"/>
@@ -12321,16 +12330,16 @@
     </row>
     <row r="78" spans="1:51">
       <c r="A78" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="12"/>
@@ -12447,16 +12456,16 @@
     </row>
     <row r="79" spans="1:51">
       <c r="A79" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F79" s="12"/>
       <c r="H79" s="12"/>
@@ -12573,16 +12582,16 @@
     </row>
     <row r="80" spans="1:51">
       <c r="A80" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F80" s="12"/>
       <c r="H80" s="12"/>
@@ -12699,16 +12708,16 @@
     </row>
     <row r="81" spans="1:51">
       <c r="A81" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F81" s="12"/>
       <c r="H81" s="12"/>
@@ -12825,16 +12834,16 @@
     </row>
     <row r="82" spans="1:51">
       <c r="A82" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F82" s="12"/>
       <c r="H82" s="12"/>
@@ -12951,16 +12960,16 @@
     </row>
     <row r="83" spans="1:51">
       <c r="A83" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="12"/>
@@ -13077,16 +13086,16 @@
     </row>
     <row r="84" spans="1:51">
       <c r="A84" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D84" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="12"/>
@@ -13203,16 +13212,16 @@
     </row>
     <row r="85" spans="1:51">
       <c r="A85" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="12"/>
@@ -13329,16 +13338,16 @@
     </row>
     <row r="86" spans="1:51">
       <c r="A86" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D86" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="12"/>
@@ -13455,16 +13464,16 @@
     </row>
     <row r="87" spans="1:51">
       <c r="A87" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="12"/>
@@ -13581,16 +13590,16 @@
     </row>
     <row r="88" spans="1:51">
       <c r="A88" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="12"/>
@@ -13707,16 +13716,16 @@
     </row>
     <row r="89" spans="1:51">
       <c r="A89" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F89" s="12"/>
       <c r="H89" s="12"/>
@@ -13833,16 +13842,16 @@
     </row>
     <row r="90" spans="1:51">
       <c r="A90" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D90" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F90" s="12"/>
       <c r="H90" s="12"/>
@@ -13959,16 +13968,16 @@
     </row>
     <row r="91" spans="1:51">
       <c r="A91" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F91" s="12"/>
       <c r="H91" s="12"/>
@@ -14085,16 +14094,16 @@
     </row>
     <row r="92" spans="1:51">
       <c r="A92" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="12"/>
@@ -14211,16 +14220,16 @@
     </row>
     <row r="93" spans="1:51">
       <c r="A93" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="12"/>
@@ -14337,16 +14346,16 @@
     </row>
     <row r="94" spans="1:51">
       <c r="A94" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D94" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="12"/>
@@ -14463,16 +14472,16 @@
     </row>
     <row r="95" spans="1:51">
       <c r="A95" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="12"/>
@@ -14589,16 +14598,16 @@
     </row>
     <row r="96" spans="1:51">
       <c r="A96" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="12"/>
@@ -14715,16 +14724,16 @@
     </row>
     <row r="97" spans="1:51">
       <c r="A97" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="12"/>
@@ -14841,16 +14850,16 @@
     </row>
     <row r="98" spans="1:51">
       <c r="A98" s="11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D98" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="12"/>
@@ -14967,16 +14976,16 @@
     </row>
     <row r="99" spans="1:51">
       <c r="A99" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F99" s="12"/>
       <c r="H99" s="12"/>
@@ -15093,16 +15102,16 @@
     </row>
     <row r="100" spans="1:51">
       <c r="A100" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B100" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D100" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F100" s="12"/>
       <c r="H100" s="12"/>
@@ -15219,16 +15228,16 @@
     </row>
     <row r="101" spans="1:51">
       <c r="A101" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F101" s="12"/>
       <c r="H101" s="12"/>
@@ -15345,16 +15354,16 @@
     </row>
     <row r="102" spans="1:51">
       <c r="A102" s="11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D102" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="12"/>
@@ -15471,16 +15480,16 @@
     </row>
     <row r="103" spans="1:51">
       <c r="A103" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="12"/>
@@ -15597,16 +15606,16 @@
     </row>
     <row r="104" spans="1:51">
       <c r="A104" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B104" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D104" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="12"/>
@@ -15723,16 +15732,16 @@
     </row>
     <row r="105" spans="1:51">
       <c r="A105" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F105" s="12"/>
       <c r="H105" s="12"/>
@@ -15849,16 +15858,16 @@
     </row>
     <row r="106" spans="1:51">
       <c r="A106" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="12"/>
@@ -15975,16 +15984,16 @@
     </row>
     <row r="107" spans="1:51">
       <c r="A107" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="12"/>
@@ -16101,16 +16110,16 @@
     </row>
     <row r="108" spans="1:51">
       <c r="A108" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="12"/>
@@ -16227,16 +16236,16 @@
     </row>
     <row r="109" spans="1:51">
       <c r="A109" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B109" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D109" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F109" s="12"/>
       <c r="H109" s="12"/>
@@ -16353,16 +16362,16 @@
     </row>
     <row r="110" spans="1:51">
       <c r="A110" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F110" s="12"/>
       <c r="H110" s="12"/>
@@ -16479,16 +16488,16 @@
     </row>
     <row r="111" spans="1:51">
       <c r="A111" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="12"/>
@@ -16605,16 +16614,16 @@
     </row>
     <row r="112" spans="1:51">
       <c r="A112" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D112" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="12"/>
@@ -16731,16 +16740,16 @@
     </row>
     <row r="113" spans="1:51">
       <c r="A113" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="12"/>
@@ -16857,16 +16866,16 @@
     </row>
     <row r="114" spans="1:51">
       <c r="A114" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="12"/>
@@ -16983,16 +16992,16 @@
     </row>
     <row r="115" spans="1:51">
       <c r="A115" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D115" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F115" s="12"/>
       <c r="H115" s="12"/>
@@ -17109,16 +17118,16 @@
     </row>
     <row r="116" spans="1:51">
       <c r="A116" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F116" s="12"/>
       <c r="H116" s="12"/>
@@ -17235,16 +17244,16 @@
     </row>
     <row r="117" spans="1:51">
       <c r="A117" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="12"/>
@@ -17361,16 +17370,16 @@
     </row>
     <row r="118" spans="1:51">
       <c r="A118" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="12"/>
@@ -17487,16 +17496,16 @@
     </row>
     <row r="119" spans="1:51">
       <c r="A119" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="12"/>
@@ -17613,16 +17622,16 @@
     </row>
     <row r="120" spans="1:51">
       <c r="A120" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="12"/>
@@ -17739,16 +17748,16 @@
     </row>
     <row r="121" spans="1:51">
       <c r="A121" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="12"/>
@@ -17865,16 +17874,16 @@
     </row>
     <row r="122" spans="1:51">
       <c r="A122" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F122" s="12"/>
       <c r="H122" s="12"/>
@@ -17991,16 +18000,16 @@
     </row>
     <row r="123" spans="1:51">
       <c r="A123" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F123" s="12"/>
       <c r="H123" s="12"/>
@@ -18117,16 +18126,16 @@
     </row>
     <row r="124" spans="1:51">
       <c r="A124" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B124" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D124" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F124" s="12"/>
       <c r="H124" s="12"/>
@@ -18243,16 +18252,16 @@
     </row>
     <row r="125" spans="1:51">
       <c r="A125" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F125" s="12"/>
       <c r="H125" s="12"/>
@@ -18369,16 +18378,16 @@
     </row>
     <row r="126" spans="1:51">
       <c r="A126" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F126" s="12"/>
       <c r="H126" s="12"/>
@@ -18495,16 +18504,16 @@
     </row>
     <row r="127" spans="1:51">
       <c r="A127" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F127" s="12"/>
       <c r="H127" s="12"/>
@@ -18621,16 +18630,16 @@
     </row>
     <row r="128" spans="1:51">
       <c r="A128" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B128" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D128" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F128" s="12"/>
       <c r="H128" s="12"/>
@@ -18747,16 +18756,16 @@
     </row>
     <row r="129" spans="1:51">
       <c r="A129" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B129" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C129" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D129" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F129" s="12"/>
       <c r="H129" s="12"/>
@@ -18873,16 +18882,16 @@
     </row>
     <row r="130" spans="1:51">
       <c r="A130" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F130" s="12"/>
       <c r="H130" s="12"/>
@@ -18999,16 +19008,16 @@
     </row>
     <row r="131" spans="1:51">
       <c r="A131" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C131" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D131" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F131" s="12"/>
       <c r="H131" s="12"/>
@@ -19125,16 +19134,16 @@
     </row>
     <row r="132" spans="1:51">
       <c r="A132" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F132" s="12"/>
       <c r="H132" s="12"/>
@@ -19251,16 +19260,16 @@
     </row>
     <row r="133" spans="1:51">
       <c r="A133" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F133" s="12"/>
       <c r="H133" s="12"/>
@@ -19377,16 +19386,16 @@
     </row>
     <row r="134" spans="1:51">
       <c r="A134" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F134" s="12"/>
       <c r="H134" s="12"/>
@@ -19503,16 +19512,16 @@
     </row>
     <row r="135" spans="1:51">
       <c r="A135" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F135" s="12"/>
       <c r="H135" s="12"/>
@@ -19629,16 +19638,16 @@
     </row>
     <row r="136" spans="1:51">
       <c r="A136" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B136" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D136" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F136" s="12"/>
       <c r="H136" s="12"/>
@@ -19755,16 +19764,16 @@
     </row>
     <row r="137" spans="1:51">
       <c r="A137" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B137" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D137" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F137" s="12"/>
       <c r="H137" s="12"/>
@@ -19881,16 +19890,16 @@
     </row>
     <row r="138" spans="1:51">
       <c r="A138" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F138" s="12"/>
       <c r="H138" s="12"/>
@@ -20007,16 +20016,16 @@
     </row>
     <row r="139" spans="1:51">
       <c r="A139" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F139" s="12"/>
       <c r="H139" s="12"/>
@@ -20133,16 +20142,16 @@
     </row>
     <row r="140" spans="1:51">
       <c r="A140" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F140" s="12"/>
       <c r="H140" s="12"/>
@@ -20259,16 +20268,16 @@
     </row>
     <row r="141" spans="1:51">
       <c r="A141" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B141" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D141" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F141" s="12"/>
       <c r="H141" s="12"/>
@@ -20385,16 +20394,16 @@
     </row>
     <row r="142" spans="1:51">
       <c r="A142" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F142" s="12"/>
       <c r="H142" s="12"/>
@@ -20511,16 +20520,16 @@
     </row>
     <row r="143" spans="1:51">
       <c r="A143" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F143" s="12"/>
       <c r="H143" s="12"/>
@@ -20637,16 +20646,16 @@
     </row>
     <row r="144" spans="1:51">
       <c r="A144" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F144" s="12"/>
       <c r="H144" s="12"/>
@@ -20763,16 +20772,16 @@
     </row>
     <row r="145" spans="1:51">
       <c r="A145" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F145" s="12"/>
       <c r="H145" s="12"/>
@@ -20889,16 +20898,16 @@
     </row>
     <row r="146" spans="1:51">
       <c r="A146" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F146" s="12"/>
       <c r="H146" s="12"/>
@@ -21015,16 +21024,16 @@
     </row>
     <row r="147" spans="1:51">
       <c r="A147" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F147" s="12"/>
       <c r="H147" s="12"/>
@@ -21141,16 +21150,16 @@
     </row>
     <row r="148" spans="1:51">
       <c r="A148" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F148" s="12"/>
       <c r="H148" s="12"/>
@@ -21267,16 +21276,16 @@
     </row>
     <row r="149" spans="1:51">
       <c r="A149" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F149" s="12"/>
       <c r="H149" s="12"/>
@@ -21393,16 +21402,16 @@
     </row>
     <row r="150" spans="1:51">
       <c r="A150" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="D150" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F150" s="12"/>
       <c r="H150" s="12"/>
@@ -21519,16 +21528,16 @@
     </row>
     <row r="151" spans="1:51">
       <c r="A151" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F151" s="12"/>
       <c r="H151" s="12"/>
@@ -21645,16 +21654,16 @@
     </row>
     <row r="152" spans="1:51">
       <c r="A152" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F152" s="12"/>
       <c r="H152" s="12"/>
@@ -21771,16 +21780,16 @@
     </row>
     <row r="153" spans="1:51">
       <c r="A153" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B153" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C153" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D153" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F153" s="12"/>
       <c r="H153" s="12"/>
@@ -21897,16 +21906,16 @@
     </row>
     <row r="154" spans="1:51">
       <c r="A154" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D154" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F154" s="12"/>
       <c r="H154" s="12"/>
@@ -22023,16 +22032,16 @@
     </row>
     <row r="155" spans="1:51">
       <c r="A155" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F155" s="12"/>
       <c r="H155" s="12"/>
@@ -22149,16 +22158,16 @@
     </row>
     <row r="156" spans="1:51">
       <c r="A156" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F156" s="12"/>
       <c r="H156" s="12"/>
@@ -22275,16 +22284,16 @@
     </row>
     <row r="157" spans="1:51">
       <c r="A157" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B157" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C157" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D157" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F157" s="12"/>
       <c r="H157" s="12"/>
@@ -22401,16 +22410,16 @@
     </row>
     <row r="158" spans="1:51">
       <c r="A158" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F158" s="12"/>
       <c r="H158" s="12"/>
@@ -22527,16 +22536,16 @@
     </row>
     <row r="159" spans="1:51">
       <c r="A159" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F159" s="12"/>
       <c r="H159" s="12"/>
@@ -22653,16 +22662,16 @@
     </row>
     <row r="160" spans="1:51">
       <c r="A160" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F160" s="12"/>
       <c r="H160" s="12"/>
@@ -22779,16 +22788,16 @@
     </row>
     <row r="161" spans="1:51">
       <c r="A161" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F161" s="12"/>
       <c r="H161" s="12"/>
@@ -22905,16 +22914,16 @@
     </row>
     <row r="162" spans="1:51">
       <c r="A162" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F162" s="12"/>
       <c r="H162" s="12"/>
@@ -23031,16 +23040,16 @@
     </row>
     <row r="163" spans="1:51">
       <c r="A163" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F163" s="12"/>
       <c r="H163" s="12"/>
@@ -23157,16 +23166,16 @@
     </row>
     <row r="164" spans="1:51">
       <c r="A164" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F164" s="12"/>
       <c r="H164" s="12"/>
@@ -23283,16 +23292,16 @@
     </row>
     <row r="165" spans="1:51">
       <c r="A165" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B165" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C165" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D165" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F165" s="12"/>
       <c r="H165" s="12"/>
@@ -23409,16 +23418,16 @@
     </row>
     <row r="166" spans="1:51">
       <c r="A166" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F166" s="12"/>
       <c r="H166" s="12"/>
@@ -23535,16 +23544,16 @@
     </row>
     <row r="167" spans="1:51">
       <c r="A167" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B167" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D167" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F167" s="12"/>
       <c r="H167" s="12"/>
@@ -23661,16 +23670,16 @@
     </row>
     <row r="168" spans="1:51">
       <c r="A168" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F168" s="12"/>
       <c r="H168" s="12"/>
@@ -23787,16 +23796,16 @@
     </row>
     <row r="169" spans="1:51">
       <c r="A169" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F169" s="12"/>
       <c r="H169" s="12"/>
@@ -23913,16 +23922,16 @@
     </row>
     <row r="170" spans="1:51">
       <c r="A170" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B170" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C170" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="D170" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F170" s="12"/>
       <c r="H170" s="12"/>
@@ -24039,16 +24048,16 @@
     </row>
     <row r="171" spans="1:51">
       <c r="A171" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B171" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D171" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F171" s="12"/>
       <c r="H171" s="12"/>
@@ -24165,16 +24174,16 @@
     </row>
     <row r="172" spans="1:51">
       <c r="A172" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F172" s="12"/>
       <c r="H172" s="12"/>
@@ -24291,16 +24300,16 @@
     </row>
     <row r="173" spans="1:51">
       <c r="A173" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F173" s="12"/>
       <c r="H173" s="12"/>
@@ -24417,16 +24426,16 @@
     </row>
     <row r="174" spans="1:51">
       <c r="A174" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F174" s="12"/>
       <c r="H174" s="12"/>
@@ -24543,16 +24552,16 @@
     </row>
     <row r="175" spans="1:51">
       <c r="A175" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B175" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C175" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="D175" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F175" s="12"/>
       <c r="H175" s="12"/>
@@ -24669,16 +24678,16 @@
     </row>
     <row r="176" spans="1:51">
       <c r="A176" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B176" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="D176" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F176" s="12"/>
       <c r="H176" s="12"/>
@@ -24795,16 +24804,16 @@
     </row>
     <row r="177" spans="1:51">
       <c r="A177" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F177" s="12"/>
       <c r="H177" s="12"/>
@@ -24921,16 +24930,16 @@
     </row>
     <row r="178" spans="1:51">
       <c r="A178" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F178" s="12"/>
       <c r="H178" s="12"/>
@@ -25047,16 +25056,16 @@
     </row>
     <row r="179" spans="1:51">
       <c r="A179" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B179" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C179" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D179" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F179" s="12"/>
       <c r="H179" s="12"/>
@@ -25173,16 +25182,16 @@
     </row>
     <row r="180" spans="1:51">
       <c r="A180" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F180" s="12"/>
       <c r="H180" s="12"/>
@@ -25299,16 +25308,16 @@
     </row>
     <row r="181" spans="1:51">
       <c r="A181" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B181" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C181" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="D181" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F181" s="12"/>
       <c r="H181" s="12"/>
@@ -25425,16 +25434,16 @@
     </row>
     <row r="182" spans="1:51">
       <c r="A182" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F182" s="12"/>
       <c r="H182" s="12"/>
@@ -25551,16 +25560,16 @@
     </row>
     <row r="183" spans="1:51">
       <c r="A183" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F183" s="12"/>
       <c r="H183" s="12"/>
@@ -25677,16 +25686,16 @@
     </row>
     <row r="184" spans="1:51">
       <c r="A184" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B184" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D184" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F184" s="12"/>
       <c r="H184" s="12"/>
@@ -25803,16 +25812,16 @@
     </row>
     <row r="185" spans="1:51">
       <c r="A185" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="F185" s="12"/>
       <c r="H185" s="12"/>
@@ -25929,16 +25938,16 @@
     </row>
     <row r="186" spans="1:51">
       <c r="A186" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F186" s="12"/>
       <c r="H186" s="12"/>
@@ -26055,16 +26064,16 @@
     </row>
     <row r="187" spans="1:51">
       <c r="A187" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F187" s="12"/>
       <c r="H187" s="12"/>
@@ -26181,16 +26190,16 @@
     </row>
     <row r="188" spans="1:51">
       <c r="A188" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B188" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C188" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D188" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F188" s="12"/>
       <c r="H188" s="12"/>
@@ -26307,16 +26316,16 @@
     </row>
     <row r="189" spans="1:51">
       <c r="A189" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F189" s="12"/>
       <c r="H189" s="12"/>
@@ -26433,16 +26442,16 @@
     </row>
     <row r="190" spans="1:51">
       <c r="A190" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F190" s="12"/>
       <c r="H190" s="12"/>
@@ -26559,16 +26568,16 @@
     </row>
     <row r="191" spans="1:51">
       <c r="A191" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B191" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C191" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="D191" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F191" s="12"/>
       <c r="H191" s="12"/>
@@ -26685,16 +26694,16 @@
     </row>
     <row r="192" spans="1:51">
       <c r="A192" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F192" s="12"/>
       <c r="H192" s="12"/>
@@ -26811,16 +26820,16 @@
     </row>
     <row r="193" spans="1:51">
       <c r="A193" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F193" s="12"/>
       <c r="H193" s="12"/>
@@ -26937,16 +26946,16 @@
     </row>
     <row r="194" spans="1:51">
       <c r="A194" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="F194" s="12"/>
       <c r="H194" s="12"/>
@@ -27063,16 +27072,16 @@
     </row>
     <row r="195" spans="1:51">
       <c r="A195" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F195" s="12"/>
       <c r="H195" s="12"/>
@@ -27189,16 +27198,16 @@
     </row>
     <row r="196" spans="1:51">
       <c r="A196" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F196" s="12"/>
       <c r="H196" s="12"/>
@@ -27314,10 +27323,18 @@
       <c r="AY196" s="4"/>
     </row>
     <row r="197" spans="1:51">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="11"/>
+      <c r="A197" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F197" s="12"/>
       <c r="H197" s="12"/>
       <c r="J197" s="10">
@@ -27432,10 +27449,18 @@
       <c r="AY197" s="4"/>
     </row>
     <row r="198" spans="1:51">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="11"/>
+      <c r="A198" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F198" s="12"/>
       <c r="H198" s="12"/>
       <c r="J198" s="10">

--- a/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
+++ b/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najwa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Office\GitHub\ss-code-semester-3\infrastruktur-dan-platform-untuk-sains-data\minggu-5\posttest-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6408D34-8FCD-48CD-B81F-0115ECCE61AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8634DC-36E7-4056-9AE4-916A2FBD9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canada by Citizenship" sheetId="2" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="231">
-  <si>
-    <t>Unknown</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="228">
   <si>
     <t>Polynesia</t>
   </si>
@@ -128,12 +125,6 @@
   </si>
   <si>
     <t>AreaName</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Developing regions</t>
@@ -2749,33 +2740,33 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AY1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:AQ198"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D197" sqref="A197:D198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="39.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="11.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F1" s="2"/>
       <c r="H1" s="2"/>
@@ -2884,16 +2875,16 @@
     </row>
     <row r="2" spans="1:43" ht="11.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="12"/>
       <c r="H2" s="12"/>
@@ -3002,16 +2993,16 @@
     </row>
     <row r="3" spans="1:43" ht="11.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="12"/>
       <c r="H3" s="12"/>
@@ -3120,16 +3111,16 @@
     </row>
     <row r="4" spans="1:43" ht="11.25" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F4" s="12"/>
       <c r="H4" s="12"/>
@@ -3236,18 +3227,18 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:43" s="3" customFormat="1" ht="15.8" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5"/>
       <c r="F5" s="12"/>
@@ -3359,16 +3350,16 @@
     </row>
     <row r="6" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="12"/>
@@ -3480,16 +3471,16 @@
     </row>
     <row r="7" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="12"/>
@@ -3601,16 +3592,16 @@
     </row>
     <row r="8" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="12"/>
@@ -3722,16 +3713,16 @@
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9"/>
       <c r="F9" s="12"/>
@@ -3841,18 +3832,18 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10"/>
       <c r="F10" s="12"/>
@@ -3962,18 +3953,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="12"/>
@@ -4083,18 +4074,18 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12"/>
       <c r="F12" s="12"/>
@@ -4204,18 +4195,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13"/>
       <c r="F13" s="12"/>
@@ -4325,18 +4316,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:43" s="3" customFormat="1" ht="12.05" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="12"/>
@@ -4448,16 +4439,16 @@
     </row>
     <row r="15" spans="1:43" ht="11.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="12"/>
       <c r="H15" s="12"/>
@@ -4566,16 +4557,16 @@
     </row>
     <row r="16" spans="1:43" ht="11.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="12"/>
       <c r="H16" s="12"/>
@@ -4684,16 +4675,16 @@
     </row>
     <row r="17" spans="1:51">
       <c r="A17" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="12"/>
       <c r="H17" s="12"/>
@@ -4802,16 +4793,16 @@
     </row>
     <row r="18" spans="1:51">
       <c r="A18" s="11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F18" s="12"/>
       <c r="H18" s="12"/>
@@ -4920,16 +4911,16 @@
     </row>
     <row r="19" spans="1:51">
       <c r="A19" s="11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="12"/>
       <c r="H19" s="12"/>
@@ -5038,16 +5029,16 @@
     </row>
     <row r="20" spans="1:51">
       <c r="A20" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" s="12"/>
       <c r="H20" s="12"/>
@@ -5156,16 +5147,16 @@
     </row>
     <row r="21" spans="1:51">
       <c r="A21" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F21" s="12"/>
       <c r="H21" s="12"/>
@@ -5274,16 +5265,16 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F22" s="12"/>
       <c r="H22" s="12"/>
@@ -5400,16 +5391,16 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="12"/>
       <c r="H23" s="12"/>
@@ -5526,16 +5517,16 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24" s="12"/>
       <c r="H24" s="12"/>
@@ -5652,16 +5643,16 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" s="12"/>
       <c r="H25" s="12"/>
@@ -5778,16 +5769,16 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F26" s="12"/>
       <c r="H26" s="12"/>
@@ -5904,16 +5895,16 @@
     </row>
     <row r="27" spans="1:51">
       <c r="A27" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F27" s="12"/>
       <c r="H27" s="12"/>
@@ -6030,16 +6021,16 @@
     </row>
     <row r="28" spans="1:51">
       <c r="A28" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" s="12"/>
       <c r="H28" s="12"/>
@@ -6156,16 +6147,16 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F29" s="12"/>
       <c r="H29" s="12"/>
@@ -6282,16 +6273,16 @@
     </row>
     <row r="30" spans="1:51">
       <c r="A30" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30" s="12"/>
       <c r="H30" s="12"/>
@@ -6408,16 +6399,16 @@
     </row>
     <row r="31" spans="1:51">
       <c r="A31" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F31" s="12"/>
       <c r="H31" s="12"/>
@@ -6534,16 +6525,16 @@
     </row>
     <row r="32" spans="1:51">
       <c r="A32" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" s="12"/>
       <c r="H32" s="12"/>
@@ -6660,16 +6651,16 @@
     </row>
     <row r="33" spans="1:51">
       <c r="A33" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F33" s="12"/>
       <c r="H33" s="12"/>
@@ -6786,16 +6777,16 @@
     </row>
     <row r="34" spans="1:51">
       <c r="A34" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34" s="12"/>
       <c r="H34" s="12"/>
@@ -6912,16 +6903,16 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F35" s="12"/>
       <c r="H35" s="12"/>
@@ -7038,16 +7029,16 @@
     </row>
     <row r="36" spans="1:51">
       <c r="A36" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F36" s="12"/>
       <c r="H36" s="12"/>
@@ -7164,16 +7155,16 @@
     </row>
     <row r="37" spans="1:51">
       <c r="A37" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F37" s="12"/>
       <c r="H37" s="12"/>
@@ -7290,16 +7281,16 @@
     </row>
     <row r="38" spans="1:51">
       <c r="A38" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="12"/>
       <c r="H38" s="12"/>
@@ -7416,16 +7407,16 @@
     </row>
     <row r="39" spans="1:51">
       <c r="A39" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F39" s="12"/>
       <c r="H39" s="12"/>
@@ -7542,16 +7533,16 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F40" s="12"/>
       <c r="H40" s="12"/>
@@ -7668,16 +7659,16 @@
     </row>
     <row r="41" spans="1:51">
       <c r="A41" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F41" s="12"/>
       <c r="H41" s="12"/>
@@ -7794,16 +7785,16 @@
     </row>
     <row r="42" spans="1:51">
       <c r="A42" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F42" s="12"/>
       <c r="H42" s="12"/>
@@ -7920,16 +7911,16 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F43" s="12"/>
       <c r="H43" s="12"/>
@@ -8046,16 +8037,16 @@
     </row>
     <row r="44" spans="1:51">
       <c r="A44" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F44" s="12"/>
       <c r="H44" s="12"/>
@@ -8172,16 +8163,16 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F45" s="12"/>
       <c r="H45" s="12"/>
@@ -8298,16 +8289,16 @@
     </row>
     <row r="46" spans="1:51">
       <c r="A46" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46" s="12"/>
       <c r="H46" s="12"/>
@@ -8424,16 +8415,16 @@
     </row>
     <row r="47" spans="1:51">
       <c r="A47" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F47" s="12"/>
       <c r="H47" s="12"/>
@@ -8550,16 +8541,16 @@
     </row>
     <row r="48" spans="1:51">
       <c r="A48" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F48" s="12"/>
       <c r="H48" s="12"/>
@@ -8676,16 +8667,16 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F49" s="12"/>
       <c r="H49" s="12"/>
@@ -8802,16 +8793,16 @@
     </row>
     <row r="50" spans="1:51">
       <c r="A50" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="12"/>
@@ -8928,16 +8919,16 @@
     </row>
     <row r="51" spans="1:51">
       <c r="A51" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F51" s="12"/>
       <c r="H51" s="12"/>
@@ -9054,16 +9045,16 @@
     </row>
     <row r="52" spans="1:51">
       <c r="A52" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="12"/>
@@ -9180,16 +9171,16 @@
     </row>
     <row r="53" spans="1:51">
       <c r="A53" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="12"/>
@@ -9306,16 +9297,16 @@
     </row>
     <row r="54" spans="1:51">
       <c r="A54" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F54" s="12"/>
       <c r="H54" s="12"/>
@@ -9432,16 +9423,16 @@
     </row>
     <row r="55" spans="1:51">
       <c r="A55" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="12"/>
@@ -9558,16 +9549,16 @@
     </row>
     <row r="56" spans="1:51">
       <c r="A56" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F56" s="12"/>
       <c r="H56" s="12"/>
@@ -9684,16 +9675,16 @@
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F57" s="12"/>
       <c r="H57" s="12"/>
@@ -9810,16 +9801,16 @@
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D58" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F58" s="12"/>
       <c r="H58" s="12"/>
@@ -9936,16 +9927,16 @@
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="12"/>
@@ -10062,16 +10053,16 @@
     </row>
     <row r="60" spans="1:51">
       <c r="A60" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="12"/>
@@ -10188,16 +10179,16 @@
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="12"/>
@@ -10314,16 +10305,16 @@
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="12"/>
@@ -10440,16 +10431,16 @@
     </row>
     <row r="63" spans="1:51">
       <c r="A63" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="12"/>
@@ -10566,16 +10557,16 @@
     </row>
     <row r="64" spans="1:51">
       <c r="A64" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="12"/>
@@ -10692,16 +10683,16 @@
     </row>
     <row r="65" spans="1:51">
       <c r="A65" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="12"/>
@@ -10818,16 +10809,16 @@
     </row>
     <row r="66" spans="1:51">
       <c r="A66" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="12"/>
@@ -10944,16 +10935,16 @@
     </row>
     <row r="67" spans="1:51">
       <c r="A67" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="12"/>
@@ -11070,16 +11061,16 @@
     </row>
     <row r="68" spans="1:51">
       <c r="A68" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="12"/>
@@ -11196,16 +11187,16 @@
     </row>
     <row r="69" spans="1:51">
       <c r="A69" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F69" s="12"/>
       <c r="H69" s="12"/>
@@ -11322,16 +11313,16 @@
     </row>
     <row r="70" spans="1:51">
       <c r="A70" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F70" s="12"/>
       <c r="H70" s="12"/>
@@ -11448,16 +11439,16 @@
     </row>
     <row r="71" spans="1:51">
       <c r="A71" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D71" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F71" s="12"/>
       <c r="H71" s="12"/>
@@ -11574,16 +11565,16 @@
     </row>
     <row r="72" spans="1:51">
       <c r="A72" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F72" s="12"/>
       <c r="H72" s="12"/>
@@ -11700,16 +11691,16 @@
     </row>
     <row r="73" spans="1:51">
       <c r="A73" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B73" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D73" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="12"/>
@@ -11826,16 +11817,16 @@
     </row>
     <row r="74" spans="1:51">
       <c r="A74" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="12"/>
@@ -11952,16 +11943,16 @@
     </row>
     <row r="75" spans="1:51">
       <c r="A75" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="12"/>
@@ -12078,16 +12069,16 @@
     </row>
     <row r="76" spans="1:51">
       <c r="A76" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="12"/>
@@ -12204,16 +12195,16 @@
     </row>
     <row r="77" spans="1:51">
       <c r="A77" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F77" s="12"/>
       <c r="H77" s="12"/>
@@ -12330,16 +12321,16 @@
     </row>
     <row r="78" spans="1:51">
       <c r="A78" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="12"/>
@@ -12456,16 +12447,16 @@
     </row>
     <row r="79" spans="1:51">
       <c r="A79" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F79" s="12"/>
       <c r="H79" s="12"/>
@@ -12582,16 +12573,16 @@
     </row>
     <row r="80" spans="1:51">
       <c r="A80" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F80" s="12"/>
       <c r="H80" s="12"/>
@@ -12708,16 +12699,16 @@
     </row>
     <row r="81" spans="1:51">
       <c r="A81" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F81" s="12"/>
       <c r="H81" s="12"/>
@@ -12834,16 +12825,16 @@
     </row>
     <row r="82" spans="1:51">
       <c r="A82" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F82" s="12"/>
       <c r="H82" s="12"/>
@@ -12960,16 +12951,16 @@
     </row>
     <row r="83" spans="1:51">
       <c r="A83" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="12"/>
@@ -13086,16 +13077,16 @@
     </row>
     <row r="84" spans="1:51">
       <c r="A84" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="12"/>
@@ -13212,16 +13203,16 @@
     </row>
     <row r="85" spans="1:51">
       <c r="A85" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="12"/>
@@ -13338,16 +13329,16 @@
     </row>
     <row r="86" spans="1:51">
       <c r="A86" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="12"/>
@@ -13464,16 +13455,16 @@
     </row>
     <row r="87" spans="1:51">
       <c r="A87" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B87" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D87" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="12"/>
@@ -13590,16 +13581,16 @@
     </row>
     <row r="88" spans="1:51">
       <c r="A88" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="12"/>
@@ -13716,16 +13707,16 @@
     </row>
     <row r="89" spans="1:51">
       <c r="A89" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F89" s="12"/>
       <c r="H89" s="12"/>
@@ -13842,16 +13833,16 @@
     </row>
     <row r="90" spans="1:51">
       <c r="A90" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F90" s="12"/>
       <c r="H90" s="12"/>
@@ -13968,16 +13959,16 @@
     </row>
     <row r="91" spans="1:51">
       <c r="A91" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F91" s="12"/>
       <c r="H91" s="12"/>
@@ -14094,16 +14085,16 @@
     </row>
     <row r="92" spans="1:51">
       <c r="A92" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="12"/>
@@ -14220,16 +14211,16 @@
     </row>
     <row r="93" spans="1:51">
       <c r="A93" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D93" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="12"/>
@@ -14346,16 +14337,16 @@
     </row>
     <row r="94" spans="1:51">
       <c r="A94" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="12"/>
@@ -14472,16 +14463,16 @@
     </row>
     <row r="95" spans="1:51">
       <c r="A95" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="12"/>
@@ -14598,16 +14589,16 @@
     </row>
     <row r="96" spans="1:51">
       <c r="A96" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="12"/>
@@ -14724,16 +14715,16 @@
     </row>
     <row r="97" spans="1:51">
       <c r="A97" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="12"/>
@@ -14850,16 +14841,16 @@
     </row>
     <row r="98" spans="1:51">
       <c r="A98" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="12"/>
@@ -14976,16 +14967,16 @@
     </row>
     <row r="99" spans="1:51">
       <c r="A99" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D99" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F99" s="12"/>
       <c r="H99" s="12"/>
@@ -15102,16 +15093,16 @@
     </row>
     <row r="100" spans="1:51">
       <c r="A100" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F100" s="12"/>
       <c r="H100" s="12"/>
@@ -15228,16 +15219,16 @@
     </row>
     <row r="101" spans="1:51">
       <c r="A101" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F101" s="12"/>
       <c r="H101" s="12"/>
@@ -15354,16 +15345,16 @@
     </row>
     <row r="102" spans="1:51">
       <c r="A102" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="12"/>
@@ -15480,16 +15471,16 @@
     </row>
     <row r="103" spans="1:51">
       <c r="A103" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="12"/>
@@ -15606,16 +15597,16 @@
     </row>
     <row r="104" spans="1:51">
       <c r="A104" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="12"/>
@@ -15732,16 +15723,16 @@
     </row>
     <row r="105" spans="1:51">
       <c r="A105" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F105" s="12"/>
       <c r="H105" s="12"/>
@@ -15858,16 +15849,16 @@
     </row>
     <row r="106" spans="1:51">
       <c r="A106" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="12"/>
@@ -15984,16 +15975,16 @@
     </row>
     <row r="107" spans="1:51">
       <c r="A107" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="12"/>
@@ -16110,16 +16101,16 @@
     </row>
     <row r="108" spans="1:51">
       <c r="A108" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D108" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="12"/>
@@ -16236,16 +16227,16 @@
     </row>
     <row r="109" spans="1:51">
       <c r="A109" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F109" s="12"/>
       <c r="H109" s="12"/>
@@ -16362,16 +16353,16 @@
     </row>
     <row r="110" spans="1:51">
       <c r="A110" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D110" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F110" s="12"/>
       <c r="H110" s="12"/>
@@ -16488,16 +16479,16 @@
     </row>
     <row r="111" spans="1:51">
       <c r="A111" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B111" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D111" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="12"/>
@@ -16614,16 +16605,16 @@
     </row>
     <row r="112" spans="1:51">
       <c r="A112" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="12"/>
@@ -16740,16 +16731,16 @@
     </row>
     <row r="113" spans="1:51">
       <c r="A113" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F113" s="12"/>
       <c r="H113" s="12"/>
@@ -16866,16 +16857,16 @@
     </row>
     <row r="114" spans="1:51">
       <c r="A114" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D114" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F114" s="12"/>
       <c r="H114" s="12"/>
@@ -16992,16 +16983,16 @@
     </row>
     <row r="115" spans="1:51">
       <c r="A115" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F115" s="12"/>
       <c r="H115" s="12"/>
@@ -17118,16 +17109,16 @@
     </row>
     <row r="116" spans="1:51">
       <c r="A116" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F116" s="12"/>
       <c r="H116" s="12"/>
@@ -17244,16 +17235,16 @@
     </row>
     <row r="117" spans="1:51">
       <c r="A117" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D117" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F117" s="12"/>
       <c r="H117" s="12"/>
@@ -17370,16 +17361,16 @@
     </row>
     <row r="118" spans="1:51">
       <c r="A118" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F118" s="12"/>
       <c r="H118" s="12"/>
@@ -17496,16 +17487,16 @@
     </row>
     <row r="119" spans="1:51">
       <c r="A119" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F119" s="12"/>
       <c r="H119" s="12"/>
@@ -17622,16 +17613,16 @@
     </row>
     <row r="120" spans="1:51">
       <c r="A120" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F120" s="12"/>
       <c r="H120" s="12"/>
@@ -17748,16 +17739,16 @@
     </row>
     <row r="121" spans="1:51">
       <c r="A121" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B121" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D121" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F121" s="12"/>
       <c r="H121" s="12"/>
@@ -17874,16 +17865,16 @@
     </row>
     <row r="122" spans="1:51">
       <c r="A122" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B122" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D122" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F122" s="12"/>
       <c r="H122" s="12"/>
@@ -18000,16 +17991,16 @@
     </row>
     <row r="123" spans="1:51">
       <c r="A123" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D123" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F123" s="12"/>
       <c r="H123" s="12"/>
@@ -18126,16 +18117,16 @@
     </row>
     <row r="124" spans="1:51">
       <c r="A124" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F124" s="12"/>
       <c r="H124" s="12"/>
@@ -18252,16 +18243,16 @@
     </row>
     <row r="125" spans="1:51">
       <c r="A125" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F125" s="12"/>
       <c r="H125" s="12"/>
@@ -18378,16 +18369,16 @@
     </row>
     <row r="126" spans="1:51">
       <c r="A126" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F126" s="12"/>
       <c r="H126" s="12"/>
@@ -18504,16 +18495,16 @@
     </row>
     <row r="127" spans="1:51">
       <c r="A127" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C127" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D127" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F127" s="12"/>
       <c r="H127" s="12"/>
@@ -18630,16 +18621,16 @@
     </row>
     <row r="128" spans="1:51">
       <c r="A128" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F128" s="12"/>
       <c r="H128" s="12"/>
@@ -18756,16 +18747,16 @@
     </row>
     <row r="129" spans="1:51">
       <c r="A129" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F129" s="12"/>
       <c r="H129" s="12"/>
@@ -18882,16 +18873,16 @@
     </row>
     <row r="130" spans="1:51">
       <c r="A130" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F130" s="12"/>
       <c r="H130" s="12"/>
@@ -19008,16 +18999,16 @@
     </row>
     <row r="131" spans="1:51">
       <c r="A131" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F131" s="12"/>
       <c r="H131" s="12"/>
@@ -19134,16 +19125,16 @@
     </row>
     <row r="132" spans="1:51">
       <c r="A132" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B132" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D132" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F132" s="12"/>
       <c r="H132" s="12"/>
@@ -19260,16 +19251,16 @@
     </row>
     <row r="133" spans="1:51">
       <c r="A133" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B133" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="13" t="s">
-        <v>3</v>
-      </c>
       <c r="D133" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F133" s="12"/>
       <c r="H133" s="12"/>
@@ -19386,16 +19377,16 @@
     </row>
     <row r="134" spans="1:51">
       <c r="A134" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B134" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D134" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F134" s="12"/>
       <c r="H134" s="12"/>
@@ -19512,16 +19503,16 @@
     </row>
     <row r="135" spans="1:51">
       <c r="A135" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F135" s="12"/>
       <c r="H135" s="12"/>
@@ -19638,16 +19629,16 @@
     </row>
     <row r="136" spans="1:51">
       <c r="A136" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F136" s="12"/>
       <c r="H136" s="12"/>
@@ -19764,16 +19755,16 @@
     </row>
     <row r="137" spans="1:51">
       <c r="A137" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F137" s="12"/>
       <c r="H137" s="12"/>
@@ -19890,16 +19881,16 @@
     </row>
     <row r="138" spans="1:51">
       <c r="A138" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F138" s="12"/>
       <c r="H138" s="12"/>
@@ -20016,16 +20007,16 @@
     </row>
     <row r="139" spans="1:51">
       <c r="A139" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F139" s="12"/>
       <c r="H139" s="12"/>
@@ -20142,16 +20133,16 @@
     </row>
     <row r="140" spans="1:51">
       <c r="A140" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B140" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D140" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F140" s="12"/>
       <c r="H140" s="12"/>
@@ -20268,16 +20259,16 @@
     </row>
     <row r="141" spans="1:51">
       <c r="A141" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F141" s="12"/>
       <c r="H141" s="12"/>
@@ -20394,16 +20385,16 @@
     </row>
     <row r="142" spans="1:51">
       <c r="A142" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F142" s="12"/>
       <c r="H142" s="12"/>
@@ -20520,16 +20511,16 @@
     </row>
     <row r="143" spans="1:51">
       <c r="A143" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F143" s="12"/>
       <c r="H143" s="12"/>
@@ -20646,16 +20637,16 @@
     </row>
     <row r="144" spans="1:51">
       <c r="A144" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F144" s="12"/>
       <c r="H144" s="12"/>
@@ -20772,16 +20763,16 @@
     </row>
     <row r="145" spans="1:51">
       <c r="A145" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F145" s="12"/>
       <c r="H145" s="12"/>
@@ -20898,16 +20889,16 @@
     </row>
     <row r="146" spans="1:51">
       <c r="A146" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F146" s="12"/>
       <c r="H146" s="12"/>
@@ -21024,16 +21015,16 @@
     </row>
     <row r="147" spans="1:51">
       <c r="A147" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F147" s="12"/>
       <c r="H147" s="12"/>
@@ -21150,16 +21141,16 @@
     </row>
     <row r="148" spans="1:51">
       <c r="A148" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F148" s="12"/>
       <c r="H148" s="12"/>
@@ -21276,16 +21267,16 @@
     </row>
     <row r="149" spans="1:51">
       <c r="A149" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F149" s="12"/>
       <c r="H149" s="12"/>
@@ -21402,16 +21393,16 @@
     </row>
     <row r="150" spans="1:51">
       <c r="A150" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F150" s="12"/>
       <c r="H150" s="12"/>
@@ -21528,16 +21519,16 @@
     </row>
     <row r="151" spans="1:51">
       <c r="A151" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B151" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D151" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F151" s="12"/>
       <c r="H151" s="12"/>
@@ -21654,16 +21645,16 @@
     </row>
     <row r="152" spans="1:51">
       <c r="A152" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F152" s="12"/>
       <c r="H152" s="12"/>
@@ -21780,16 +21771,16 @@
     </row>
     <row r="153" spans="1:51">
       <c r="A153" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F153" s="12"/>
       <c r="H153" s="12"/>
@@ -21906,16 +21897,16 @@
     </row>
     <row r="154" spans="1:51">
       <c r="A154" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F154" s="12"/>
       <c r="H154" s="12"/>
@@ -22032,16 +22023,16 @@
     </row>
     <row r="155" spans="1:51">
       <c r="A155" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B155" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D155" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F155" s="12"/>
       <c r="H155" s="12"/>
@@ -22158,16 +22149,16 @@
     </row>
     <row r="156" spans="1:51">
       <c r="A156" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F156" s="12"/>
       <c r="H156" s="12"/>
@@ -22284,16 +22275,16 @@
     </row>
     <row r="157" spans="1:51">
       <c r="A157" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F157" s="12"/>
       <c r="H157" s="12"/>
@@ -22410,16 +22401,16 @@
     </row>
     <row r="158" spans="1:51">
       <c r="A158" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F158" s="12"/>
       <c r="H158" s="12"/>
@@ -22536,16 +22527,16 @@
     </row>
     <row r="159" spans="1:51">
       <c r="A159" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F159" s="12"/>
       <c r="H159" s="12"/>
@@ -22662,16 +22653,16 @@
     </row>
     <row r="160" spans="1:51">
       <c r="A160" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B160" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C160" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D160" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F160" s="12"/>
       <c r="H160" s="12"/>
@@ -22788,16 +22779,16 @@
     </row>
     <row r="161" spans="1:51">
       <c r="A161" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F161" s="12"/>
       <c r="H161" s="12"/>
@@ -22914,16 +22905,16 @@
     </row>
     <row r="162" spans="1:51">
       <c r="A162" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B162" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C162" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D162" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F162" s="12"/>
       <c r="H162" s="12"/>
@@ -23040,16 +23031,16 @@
     </row>
     <row r="163" spans="1:51">
       <c r="A163" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B163" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D163" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F163" s="12"/>
       <c r="H163" s="12"/>
@@ -23166,16 +23157,16 @@
     </row>
     <row r="164" spans="1:51">
       <c r="A164" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B164" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C164" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D164" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F164" s="12"/>
       <c r="H164" s="12"/>
@@ -23292,16 +23283,16 @@
     </row>
     <row r="165" spans="1:51">
       <c r="A165" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F165" s="12"/>
       <c r="H165" s="12"/>
@@ -23418,16 +23409,16 @@
     </row>
     <row r="166" spans="1:51">
       <c r="A166" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F166" s="12"/>
       <c r="H166" s="12"/>
@@ -23544,16 +23535,16 @@
     </row>
     <row r="167" spans="1:51">
       <c r="A167" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F167" s="12"/>
       <c r="H167" s="12"/>
@@ -23670,16 +23661,16 @@
     </row>
     <row r="168" spans="1:51">
       <c r="A168" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B168" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="D168" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F168" s="12"/>
       <c r="H168" s="12"/>
@@ -23796,16 +23787,16 @@
     </row>
     <row r="169" spans="1:51">
       <c r="A169" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F169" s="12"/>
       <c r="H169" s="12"/>
@@ -23922,16 +23913,16 @@
     </row>
     <row r="170" spans="1:51">
       <c r="A170" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F170" s="12"/>
       <c r="H170" s="12"/>
@@ -24048,16 +24039,16 @@
     </row>
     <row r="171" spans="1:51">
       <c r="A171" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F171" s="12"/>
       <c r="H171" s="12"/>
@@ -24174,16 +24165,16 @@
     </row>
     <row r="172" spans="1:51">
       <c r="A172" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F172" s="12"/>
       <c r="H172" s="12"/>
@@ -24300,16 +24291,16 @@
     </row>
     <row r="173" spans="1:51">
       <c r="A173" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F173" s="12"/>
       <c r="H173" s="12"/>
@@ -24426,16 +24417,16 @@
     </row>
     <row r="174" spans="1:51">
       <c r="A174" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B174" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D174" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F174" s="12"/>
       <c r="H174" s="12"/>
@@ -24552,16 +24543,16 @@
     </row>
     <row r="175" spans="1:51">
       <c r="A175" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F175" s="12"/>
       <c r="H175" s="12"/>
@@ -24678,16 +24669,16 @@
     </row>
     <row r="176" spans="1:51">
       <c r="A176" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F176" s="12"/>
       <c r="H176" s="12"/>
@@ -24804,16 +24795,16 @@
     </row>
     <row r="177" spans="1:51">
       <c r="A177" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F177" s="12"/>
       <c r="H177" s="12"/>
@@ -24930,16 +24921,16 @@
     </row>
     <row r="178" spans="1:51">
       <c r="A178" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F178" s="12"/>
       <c r="H178" s="12"/>
@@ -25056,16 +25047,16 @@
     </row>
     <row r="179" spans="1:51">
       <c r="A179" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F179" s="12"/>
       <c r="H179" s="12"/>
@@ -25182,16 +25173,16 @@
     </row>
     <row r="180" spans="1:51">
       <c r="A180" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F180" s="12"/>
       <c r="H180" s="12"/>
@@ -25308,16 +25299,16 @@
     </row>
     <row r="181" spans="1:51">
       <c r="A181" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F181" s="12"/>
       <c r="H181" s="12"/>
@@ -25434,16 +25425,16 @@
     </row>
     <row r="182" spans="1:51">
       <c r="A182" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F182" s="12"/>
       <c r="H182" s="12"/>
@@ -25560,16 +25551,16 @@
     </row>
     <row r="183" spans="1:51">
       <c r="A183" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F183" s="12"/>
       <c r="H183" s="12"/>
@@ -25686,16 +25677,16 @@
     </row>
     <row r="184" spans="1:51">
       <c r="A184" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F184" s="12"/>
       <c r="H184" s="12"/>
@@ -25812,16 +25803,16 @@
     </row>
     <row r="185" spans="1:51">
       <c r="A185" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F185" s="12"/>
       <c r="H185" s="12"/>
@@ -25938,16 +25929,16 @@
     </row>
     <row r="186" spans="1:51">
       <c r="A186" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F186" s="12"/>
       <c r="H186" s="12"/>
@@ -26064,16 +26055,16 @@
     </row>
     <row r="187" spans="1:51">
       <c r="A187" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D187" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F187" s="12"/>
       <c r="H187" s="12"/>
@@ -26190,16 +26181,16 @@
     </row>
     <row r="188" spans="1:51">
       <c r="A188" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F188" s="12"/>
       <c r="H188" s="12"/>
@@ -26316,16 +26307,16 @@
     </row>
     <row r="189" spans="1:51">
       <c r="A189" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F189" s="12"/>
       <c r="H189" s="12"/>
@@ -26442,16 +26433,16 @@
     </row>
     <row r="190" spans="1:51">
       <c r="A190" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D190" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F190" s="12"/>
       <c r="H190" s="12"/>
@@ -26568,16 +26559,16 @@
     </row>
     <row r="191" spans="1:51">
       <c r="A191" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D191" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F191" s="12"/>
       <c r="H191" s="12"/>
@@ -26694,16 +26685,16 @@
     </row>
     <row r="192" spans="1:51">
       <c r="A192" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F192" s="12"/>
       <c r="H192" s="12"/>
@@ -26820,16 +26811,16 @@
     </row>
     <row r="193" spans="1:51">
       <c r="A193" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F193" s="12"/>
       <c r="H193" s="12"/>
@@ -26946,16 +26937,16 @@
     </row>
     <row r="194" spans="1:51">
       <c r="A194" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F194" s="12"/>
       <c r="H194" s="12"/>
@@ -27072,16 +27063,16 @@
     </row>
     <row r="195" spans="1:51">
       <c r="A195" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F195" s="12"/>
       <c r="H195" s="12"/>
@@ -27198,16 +27189,16 @@
     </row>
     <row r="196" spans="1:51">
       <c r="A196" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D196" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F196" s="12"/>
       <c r="H196" s="12"/>
@@ -27323,18 +27314,10 @@
       <c r="AY196" s="4"/>
     </row>
     <row r="197" spans="1:51">
-      <c r="A197" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="11"/>
       <c r="F197" s="12"/>
       <c r="H197" s="12"/>
       <c r="J197" s="10">
@@ -27449,18 +27432,10 @@
       <c r="AY197" s="4"/>
     </row>
     <row r="198" spans="1:51">
-      <c r="A198" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="11"/>
       <c r="F198" s="12"/>
       <c r="H198" s="12"/>
       <c r="J198" s="10">

--- a/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
+++ b/infrastruktur-dan-platform-untuk-sains-data/minggu-5/posttest-5/Canada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Office\GitHub\ss-code-semester-3\infrastruktur-dan-platform-untuk-sains-data\minggu-5\posttest-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8634DC-36E7-4056-9AE4-916A2FBD9305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADABC3F-EA0A-4A63-B7EB-F1267089AAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2740,8 +2740,8 @@
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AY1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D197" sqref="A197:D198"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K197" sqref="K197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="10"/>
@@ -27320,108 +27320,40 @@
       <c r="D197" s="11"/>
       <c r="F197" s="12"/>
       <c r="H197" s="12"/>
-      <c r="J197" s="10">
-        <v>44000</v>
-      </c>
-      <c r="K197" s="10">
-        <v>18078</v>
-      </c>
-      <c r="L197" s="10">
-        <v>16904</v>
-      </c>
-      <c r="M197" s="10">
-        <v>13635</v>
-      </c>
-      <c r="N197" s="10">
-        <v>14855</v>
-      </c>
-      <c r="O197" s="10">
-        <v>14368</v>
-      </c>
-      <c r="P197" s="10">
-        <v>13303</v>
-      </c>
-      <c r="Q197" s="10">
-        <v>17304</v>
-      </c>
-      <c r="R197" s="10">
-        <v>22279</v>
-      </c>
-      <c r="S197" s="10">
-        <v>27118</v>
-      </c>
-      <c r="T197" s="10">
-        <v>28397</v>
-      </c>
-      <c r="U197" s="10">
-        <v>25293</v>
-      </c>
-      <c r="V197" s="10">
-        <v>33100</v>
-      </c>
-      <c r="W197" s="10">
-        <v>34589</v>
-      </c>
-      <c r="X197" s="10">
-        <v>30717</v>
-      </c>
-      <c r="Y197" s="10">
-        <v>25152</v>
-      </c>
-      <c r="Z197" s="10">
-        <v>25986</v>
-      </c>
-      <c r="AA197" s="10">
-        <v>23151</v>
-      </c>
-      <c r="AB197" s="10">
-        <v>13468</v>
-      </c>
-      <c r="AC197" s="10">
-        <v>10132</v>
-      </c>
-      <c r="AD197" s="10">
-        <v>10743</v>
-      </c>
-      <c r="AE197" s="10">
-        <v>7993</v>
-      </c>
-      <c r="AF197" s="10">
-        <v>5938</v>
-      </c>
-      <c r="AG197" s="10">
-        <v>4052</v>
-      </c>
-      <c r="AH197" s="10">
-        <v>3739</v>
-      </c>
-      <c r="AI197" s="10">
-        <v>4785</v>
-      </c>
-      <c r="AJ197" s="10">
-        <v>4583</v>
-      </c>
-      <c r="AK197" s="10">
-        <v>4348</v>
-      </c>
-      <c r="AL197" s="10">
-        <v>4197</v>
-      </c>
-      <c r="AM197" s="10">
-        <v>3402</v>
-      </c>
-      <c r="AN197" s="10">
-        <v>3731</v>
-      </c>
-      <c r="AO197" s="10">
-        <v>2554</v>
-      </c>
-      <c r="AP197" s="10">
-        <v>1681</v>
-      </c>
-      <c r="AQ197" s="10">
-        <v>1484</v>
-      </c>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="10"/>
+      <c r="AA197" s="10"/>
+      <c r="AB197" s="10"/>
+      <c r="AC197" s="10"/>
+      <c r="AD197" s="10"/>
+      <c r="AE197" s="10"/>
+      <c r="AF197" s="10"/>
+      <c r="AG197" s="10"/>
+      <c r="AH197" s="10"/>
+      <c r="AI197" s="10"/>
+      <c r="AJ197" s="10"/>
+      <c r="AK197" s="10"/>
+      <c r="AL197" s="10"/>
+      <c r="AM197" s="10"/>
+      <c r="AN197" s="10"/>
+      <c r="AO197" s="10"/>
+      <c r="AP197" s="10"/>
+      <c r="AQ197" s="10"/>
       <c r="AR197" s="4"/>
       <c r="AS197" s="4"/>
       <c r="AT197" s="4"/>
@@ -27438,108 +27370,40 @@
       <c r="D198" s="11"/>
       <c r="F198" s="12"/>
       <c r="H198" s="12"/>
-      <c r="J198" s="10">
-        <v>143137</v>
-      </c>
-      <c r="K198" s="10">
-        <v>128641</v>
-      </c>
-      <c r="L198" s="10">
-        <v>121175</v>
-      </c>
-      <c r="M198" s="10">
-        <v>89185</v>
-      </c>
-      <c r="N198" s="10">
-        <v>88272</v>
-      </c>
-      <c r="O198" s="10">
-        <v>84346</v>
-      </c>
-      <c r="P198" s="10">
-        <v>99351</v>
-      </c>
-      <c r="Q198" s="10">
-        <v>152075</v>
-      </c>
-      <c r="R198" s="10">
-        <v>161585</v>
-      </c>
-      <c r="S198" s="10">
-        <v>191550</v>
-      </c>
-      <c r="T198" s="10">
-        <v>216451</v>
-      </c>
-      <c r="U198" s="10">
-        <v>232802</v>
-      </c>
-      <c r="V198" s="10">
-        <v>254787</v>
-      </c>
-      <c r="W198" s="10">
-        <v>256638</v>
-      </c>
-      <c r="X198" s="10">
-        <v>224382</v>
-      </c>
-      <c r="Y198" s="10">
-        <v>212864</v>
-      </c>
-      <c r="Z198" s="10">
-        <v>226071</v>
-      </c>
-      <c r="AA198" s="10">
-        <v>216036</v>
-      </c>
-      <c r="AB198" s="10">
-        <v>174195</v>
-      </c>
-      <c r="AC198" s="10">
-        <v>189950</v>
-      </c>
-      <c r="AD198" s="10">
-        <v>227455</v>
-      </c>
-      <c r="AE198" s="10">
-        <v>250636</v>
-      </c>
-      <c r="AF198" s="10">
-        <v>229049</v>
-      </c>
-      <c r="AG198" s="10">
-        <v>221349</v>
-      </c>
-      <c r="AH198" s="10">
-        <v>235822</v>
-      </c>
-      <c r="AI198" s="8">
-        <v>262242</v>
-      </c>
-      <c r="AJ198" s="8">
-        <v>251640</v>
-      </c>
-      <c r="AK198" s="8">
-        <v>236753</v>
-      </c>
-      <c r="AL198" s="10">
-        <v>247244</v>
-      </c>
-      <c r="AM198" s="10">
-        <v>252170</v>
-      </c>
-      <c r="AN198" s="9">
-        <v>280687</v>
-      </c>
-      <c r="AO198" s="8">
-        <v>248748</v>
-      </c>
-      <c r="AP198" s="8">
-        <v>257903</v>
-      </c>
-      <c r="AQ198" s="8">
-        <v>259021</v>
-      </c>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10"/>
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+      <c r="Z198" s="10"/>
+      <c r="AA198" s="10"/>
+      <c r="AB198" s="10"/>
+      <c r="AC198" s="10"/>
+      <c r="AD198" s="10"/>
+      <c r="AE198" s="10"/>
+      <c r="AF198" s="10"/>
+      <c r="AG198" s="10"/>
+      <c r="AH198" s="10"/>
+      <c r="AI198" s="8"/>
+      <c r="AJ198" s="8"/>
+      <c r="AK198" s="8"/>
+      <c r="AL198" s="10"/>
+      <c r="AM198" s="10"/>
+      <c r="AN198" s="9"/>
+      <c r="AO198" s="8"/>
+      <c r="AP198" s="8"/>
+      <c r="AQ198" s="8"/>
       <c r="AR198" s="4"/>
       <c r="AS198" s="4"/>
       <c r="AT198" s="4"/>
